--- a/document/後期チーム制作11班スケジュール.xlsx
+++ b/document/後期チーム制作11班スケジュール.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -176,31 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成作業の優先度、コスト（作業時間）を話し合え</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,19 +227,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ブロックに当たったらそこを始点として飛びなおす</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -510,19 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ブーメランが当たったらSE出して死ぬ</t>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必要な要素について、優先度、コスト、作業担当者を出せ</t>
     <rPh sb="0" eb="2">
       <t>ヒツヨウ</t>
@@ -753,19 +702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール作成/仕様書の手伝い</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テツダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像の描画・移動</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -799,10 +735,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ考案・実装</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～12月24日</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -834,38 +766,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックの作成：敵の描画当たり判定</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～12月28日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～12月24日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スティック倒したらブーメラン投げる</t>
-    <rPh sb="5" eb="6">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バンパーと低反発の作成</t>
-    <rPh sb="5" eb="8">
-      <t>テイハンパツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -885,18 +786,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>βリソース作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～12月24日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ考案</t>
-    <rPh sb="4" eb="6">
-      <t>コウアン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -924,19 +814,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ考案・実装・βリソース作成</t>
-    <rPh sb="4" eb="6">
-      <t>コウアン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～12月24日</t>
     <rPh sb="3" eb="4">
       <t>ガツ</t>
@@ -947,19 +824,335 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブーメランの半径３マスの円を描いて飛ぶ</t>
+    <t>～1月8日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月8日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月9日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αバグチェック・βのステージ考案・実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αバグチェック・βの必要なシーンの作成・遷移</t>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αバグチェック・βのステージ考案・実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αバグチェック・βの必要なシーンの作成・遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αバグチェック・ステージ考案・実装・βリソース作成</t>
+    <rPh sb="12" eb="14">
+      <t>コウアン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月９</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αチェック後からβ作成開始</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α完成まで(αチェック後からβ作成開始)</t>
+    <rPh sb="1" eb="3">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αチェック後からβ作成開始</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αバグチェック・βリソース作成(αチェック後からβ作成開始)</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール作成・仕様書の手伝い</t>
     <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テツダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール作成・ブーメランの半径３マスの円を描いて飛ぶ</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ハンケイ</t>
     </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ考案・追加の仕様(終わりそうなら)・バグチェック</t>
+    <rPh sb="4" eb="6">
+      <t>コウアン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月24日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロックに当たったらそこを始点として飛びなおす(跳ね返る)</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーメランの作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの作成・敵の作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~12月20日</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スティック倒したらブーメラン投げる(プレイヤー)</t>
+    <rPh sb="5" eb="6">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スティック倒したらブーメラン投げる(上記が終わってたら)</t>
+    <rPh sb="5" eb="6">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブーメランが当たったら死ぬ</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
     <rPh sb="12" eb="13">
-      <t>エン</t>
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブーメランが当たったらSE出す</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
     </rPh>
     <rPh sb="14" eb="15">
-      <t>エガ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ト</t>
-    </rPh>
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンパーと低反発の作成・ブーメランの挙動(時間があれば)</t>
+    <rPh sb="5" eb="8">
+      <t>テイハンパツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>βのステージ考案・βリソース作成</t>
+    <rPh sb="6" eb="8">
+      <t>コウアン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>βリソース作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーメランの弾道予測線(UI)</t>
+    <rPh sb="6" eb="10">
+      <t>ダンドウヨソク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り残段数(UI)・プレイシーンのSEの挿入</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ザンダンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月15日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月15日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月15日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ考案・</t>
+    <rPh sb="4" eb="6">
+      <t>コウアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成作業の優先度、コスト（作業時間）を話し合う</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -967,7 +1160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,6 +1214,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1255,7 +1457,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,6 +1511,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1600,153 +1823,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="54.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1755,10 +1979,10 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1767,10 +1991,10 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1779,10 +2003,10 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1791,7 +2015,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1799,10 +2023,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1811,10 +2035,10 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1823,62 +2047,62 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
+      <c r="B26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1887,54 +2111,54 @@
     </row>
     <row r="29" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+    <row r="30" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1943,10 +2167,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1954,43 +2178,43 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
+      <c r="B36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1999,10 +2223,10 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -2010,67 +2234,67 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
+      <c r="B41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -2079,10 +2303,10 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -2091,62 +2315,68 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="7" t="s">
-        <v>43</v>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
+      <c r="B49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="1"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2398,6 +2628,9 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.4">
@@ -2426,6 +2659,9 @@
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2436,37 +2672,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D41"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="55.625" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2474,279 +2713,346 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D6" s="16">
         <v>43447</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
+      <c r="F6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="16">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="26"/>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="26"/>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D8" s="15">
         <v>43454</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="15">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="26"/>
       <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="26"/>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="26"/>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="26"/>
+      <c r="C12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="23">
+        <v>43110</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="26"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="15">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="26"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="17"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="26"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="17"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="26"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="17"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="26"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="18">
+        <v>43447</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="16">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="26"/>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="15">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="26"/>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="26"/>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="26"/>
+      <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="1" t="s">
+      <c r="D24" s="15">
+        <v>43110</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="26"/>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="20"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="16">
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="20"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="16">
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="1" t="s">
+      <c r="H25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="15">
-        <v>43454</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="19"/>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="19"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="19"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="19"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="16">
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="19"/>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="19"/>
-      <c r="C32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="15">
-        <v>43454</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="19"/>
-      <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="19"/>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="19"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="19"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="19"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="19"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="19"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="19"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="20"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="26"/>
+      <c r="C26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="23">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="26"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="17"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="27"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="F6:F18"/>
+    <mergeCell ref="F19:F28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/後期チーム制作11班スケジュール.xlsx
+++ b/document/後期チーム制作11班スケジュール.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g018a1264\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="優先度・コスト・担当者(プレイ画面)" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -956,22 +956,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ考案・追加の仕様(終わりそうなら)・バグチェック</t>
-    <rPh sb="4" eb="6">
-      <t>コウアン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～1月24日</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
@@ -1145,14 +1129,149 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ考案・</t>
+    <t>作成作業の優先度、コスト（作業時間）を話し合う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーメラン・各ブロック・敵の調整</t>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーメラン・各ブロック・敵の調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月17日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースの挿入・追加</t>
+    <rPh sb="5" eb="7">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ遷移</t>
     <rPh sb="4" eb="6">
-      <t>コウアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成作業の優先度、コスト（作業時間）を話し合う</t>
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの書き方をを統一にして綺麗にする</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月24日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～1月30日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わってないタスクの消化・ステージ作成</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ作成・バグチェック</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>βの最終調整</t>
+    <rPh sb="2" eb="4">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>βの最終調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグチェック・予備日</t>
+    <rPh sb="7" eb="10">
+      <t>ヨビビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1457,7 +1576,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1660,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1825,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1840,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -1991,7 +2116,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -2035,7 +2160,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -2047,7 +2172,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
@@ -2672,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2751,11 +2876,11 @@
         <v>93</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>71</v>
@@ -2764,14 +2889,14 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="26"/>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="15">
         <v>43454</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="15">
         <v>43454</v>
@@ -2787,7 +2912,7 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>68</v>
@@ -2845,7 +2970,7 @@
       <c r="B13" s="26"/>
       <c r="C13" s="11"/>
       <c r="D13" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="1" t="s">
@@ -2857,202 +2982,288 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="26"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="F14" s="26"/>
       <c r="G14" s="11"/>
       <c r="H14" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="26"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="23">
+        <v>43496</v>
+      </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="27"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="G17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="26"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="17"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="G18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="23">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="18">
         <v>43447</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <v>43447</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="26"/>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="26"/>
       <c r="C21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="15">
-        <v>43454</v>
+        <v>97</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="H22" s="15">
+        <v>43454</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="26"/>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>67</v>
+        <v>106</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="26"/>
       <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="15">
-        <v>43110</v>
+        <v>91</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="26"/>
       <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="15">
+        <v>43110</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="26"/>
-      <c r="C26" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="17"/>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="F26" s="26"/>
-      <c r="G26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="23">
-        <v>43110</v>
+      <c r="G26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="26"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="23">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="26"/>
+      <c r="C28" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="23">
+        <v>43496</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="27"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="26"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="17"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="26"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="17"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="26"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="17"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="27"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="13"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="29">
+        <v>43496</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="F6:F18"/>
-    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="B20:B32"/>
+    <mergeCell ref="F6:F19"/>
+    <mergeCell ref="F20:F32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
